--- a/input/Mendix_TestPlan.xlsx
+++ b/input/Mendix_TestPlan.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FinalBatchrun\Mendix\Mendix\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0D4F80A-0051-42A4-B0C8-758B73E65E87}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B5BE9C-EACD-49D1-9BF1-68754647CFF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{14E9EC64-EF31-48E0-B023-FAA0F7238E1E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
   <si>
     <t>35Create_Material_SaveAsDraft_JDE.xml</t>
   </si>
@@ -365,13 +365,17 @@
     <t>abc</t>
   </si>
   <si>
-    <t>512374</t>
+    <t>505326</t>
+  </si>
+  <si>
+    <t>1427470</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -749,20 +753,20 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="72" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.85546875" collapsed="false"/>
+    <col min="3" max="3" customWidth="true" width="97.0" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="9.0" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="72.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -849,7 +853,7 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>111</v>

--- a/input/Mendix_TestPlan.xlsx
+++ b/input/Mendix_TestPlan.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Batchrun\setupisam.log\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B5BE9C-EACD-49D1-9BF1-68754647CFF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F773D-97BD-4359-B32D-9F9D920448CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{14E9EC64-EF31-48E0-B023-FAA0F7238E1E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="110">
   <si>
     <t>35Create_Material_SaveAsDraft_JDE.xml</t>
   </si>
@@ -90,15 +90,6 @@
   </si>
   <si>
     <t>MZCB</t>
-  </si>
-  <si>
-    <t>ABC</t>
-  </si>
-  <si>
-    <t>416678</t>
-  </si>
-  <si>
-    <t>1427396</t>
   </si>
   <si>
     <t>10.Create_Material_with_Questionnaire_only_Global_with_Rejections_SAP.xml</t>
@@ -375,7 +366,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -752,21 +742,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68D3B0-419D-4776-B7EB-C4F5DAC7B24D}">
   <dimension ref="A1:I96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.85546875" collapsed="false"/>
-    <col min="3" max="3" customWidth="true" width="97.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="9.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="1" max="1" width="5.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="72" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -806,7 +796,25 @@
         <v>18</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
+      </c>
+      <c r="H2" t="s">
+        <v>107</v>
+      </c>
+      <c r="I2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -817,7 +825,25 @@
         <v>18</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>107</v>
+      </c>
+      <c r="H3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,7 +854,25 @@
         <v>18</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
+        <v>109</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G4" t="s">
+        <v>107</v>
+      </c>
+      <c r="H4" t="s">
+        <v>107</v>
+      </c>
+      <c r="I4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,7 +883,25 @@
         <v>18</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
+        <v>109</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>107</v>
+      </c>
+      <c r="G5" t="s">
+        <v>107</v>
+      </c>
+      <c r="H5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I5" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -853,22 +915,22 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -879,7 +941,25 @@
         <v>18</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>107</v>
+      </c>
+      <c r="H7" t="s">
+        <v>107</v>
+      </c>
+      <c r="I7" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -890,7 +970,25 @@
         <v>18</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
+        <v>109</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F8" t="s">
+        <v>107</v>
+      </c>
+      <c r="G8" t="s">
+        <v>107</v>
+      </c>
+      <c r="H8" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -898,10 +996,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F9" t="s">
+        <v>107</v>
+      </c>
+      <c r="G9" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" t="s">
+        <v>107</v>
+      </c>
+      <c r="I9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -909,10 +1025,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" t="s">
+        <v>107</v>
+      </c>
+      <c r="G10" t="s">
+        <v>107</v>
+      </c>
+      <c r="H10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I10" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -920,10 +1054,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
+        <v>28</v>
+      </c>
+      <c r="D11" t="s">
+        <v>109</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>107</v>
+      </c>
+      <c r="H11" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -931,10 +1083,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F12" t="s">
+        <v>107</v>
+      </c>
+      <c r="G12" t="s">
+        <v>107</v>
+      </c>
+      <c r="H12" t="s">
+        <v>107</v>
+      </c>
+      <c r="I12" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -942,10 +1112,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
+        <v>30</v>
+      </c>
+      <c r="D13" t="s">
+        <v>109</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" t="s">
+        <v>107</v>
+      </c>
+      <c r="G13" t="s">
+        <v>107</v>
+      </c>
+      <c r="H13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I13" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -953,10 +1141,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
+        <v>31</v>
+      </c>
+      <c r="D14" t="s">
+        <v>109</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F14" t="s">
+        <v>107</v>
+      </c>
+      <c r="G14" t="s">
+        <v>107</v>
+      </c>
+      <c r="H14" t="s">
+        <v>107</v>
+      </c>
+      <c r="I14" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -964,10 +1170,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F15" t="s">
+        <v>107</v>
+      </c>
+      <c r="G15" t="s">
+        <v>107</v>
+      </c>
+      <c r="H15" t="s">
+        <v>107</v>
+      </c>
+      <c r="I15" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -975,10 +1199,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
+        <v>33</v>
+      </c>
+      <c r="D16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>107</v>
+      </c>
+      <c r="H16" t="s">
+        <v>107</v>
+      </c>
+      <c r="I16" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -986,10 +1228,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D17" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F17" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" t="s">
+        <v>107</v>
+      </c>
+      <c r="H17" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -997,10 +1257,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
+      </c>
+      <c r="D18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F18" t="s">
+        <v>107</v>
+      </c>
+      <c r="G18" t="s">
+        <v>107</v>
+      </c>
+      <c r="H18" t="s">
+        <v>107</v>
+      </c>
+      <c r="I18" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1008,10 +1286,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D19" t="s">
+        <v>109</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>107</v>
+      </c>
+      <c r="G19" t="s">
+        <v>107</v>
+      </c>
+      <c r="H19" t="s">
+        <v>107</v>
+      </c>
+      <c r="I19" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1022,7 +1318,25 @@
         <v>18</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="D20" t="s">
+        <v>109</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>107</v>
+      </c>
+      <c r="G20" t="s">
+        <v>107</v>
+      </c>
+      <c r="H20" t="s">
+        <v>107</v>
+      </c>
+      <c r="I20" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1036,10 +1350,22 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>22</v>
+        <v>109</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>21</v>
+        <v>108</v>
+      </c>
+      <c r="F21" t="s">
+        <v>107</v>
+      </c>
+      <c r="G21" t="s">
+        <v>107</v>
+      </c>
+      <c r="H21" t="s">
+        <v>107</v>
+      </c>
+      <c r="I21" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1050,7 +1376,25 @@
         <v>18</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F22" t="s">
+        <v>107</v>
+      </c>
+      <c r="G22" t="s">
+        <v>107</v>
+      </c>
+      <c r="H22" t="s">
+        <v>107</v>
+      </c>
+      <c r="I22" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1061,7 +1405,25 @@
         <v>18</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>109</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F23" t="s">
+        <v>107</v>
+      </c>
+      <c r="G23" t="s">
+        <v>107</v>
+      </c>
+      <c r="H23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I23" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1069,34 +1431,58 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24"/>
-      <c r="E24" s="5"/>
-      <c r="F24"/>
-      <c r="G24"/>
-      <c r="H24"/>
-      <c r="I24"/>
+      <c r="D24" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H24" t="s">
+        <v>107</v>
+      </c>
+      <c r="I24" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25"/>
-      <c r="E25" s="5"/>
-      <c r="F25"/>
-      <c r="G25"/>
-      <c r="H25"/>
-      <c r="I25"/>
+      <c r="D25" t="s">
+        <v>109</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" t="s">
+        <v>107</v>
+      </c>
+      <c r="G25" t="s">
+        <v>107</v>
+      </c>
+      <c r="H25" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1106,10 +1492,25 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
+        <v>39</v>
+      </c>
+      <c r="D26" t="s">
+        <v>107</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F26" t="s">
+        <v>107</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
+      </c>
+      <c r="H26" t="s">
+        <v>107</v>
       </c>
       <c r="I26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
@@ -1120,22 +1521,22 @@
         <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1149,22 +1550,22 @@
         <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="G28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1175,13 +1576,28 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
+        <v>42</v>
+      </c>
+      <c r="D29" t="s">
+        <v>107</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F29" t="s">
+        <v>107</v>
+      </c>
+      <c r="G29" t="s">
+        <v>107</v>
+      </c>
+      <c r="H29" t="s">
+        <v>107</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
@@ -1189,13 +1605,28 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
+        <v>43</v>
+      </c>
+      <c r="D30" t="s">
+        <v>107</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F30" t="s">
+        <v>107</v>
+      </c>
+      <c r="G30" t="s">
+        <v>107</v>
+      </c>
+      <c r="H30" t="s">
+        <v>107</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
@@ -1203,13 +1634,28 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
+        <v>44</v>
+      </c>
+      <c r="D31" t="s">
+        <v>107</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F31" t="s">
+        <v>107</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" t="s">
+        <v>107</v>
       </c>
       <c r="I31" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
@@ -1217,13 +1663,28 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
+        <v>45</v>
+      </c>
+      <c r="D32" t="s">
+        <v>107</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H32" t="s">
+        <v>107</v>
       </c>
       <c r="I32" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1234,7 +1695,22 @@
         <v>18</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="D33" t="s">
+        <v>107</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F33" t="s">
+        <v>107</v>
+      </c>
+      <c r="G33" t="s">
+        <v>107</v>
+      </c>
+      <c r="H33" t="s">
+        <v>107</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -1248,10 +1724,25 @@
         <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D34" t="s">
+        <v>107</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F34" t="s">
+        <v>107</v>
+      </c>
+      <c r="G34" t="s">
+        <v>107</v>
+      </c>
+      <c r="H34" t="s">
+        <v>107</v>
       </c>
       <c r="I34" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1259,13 +1750,28 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>51</v>
+        <v>48</v>
+      </c>
+      <c r="D35" t="s">
+        <v>107</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F35" t="s">
+        <v>107</v>
+      </c>
+      <c r="G35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H35" t="s">
+        <v>107</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1273,13 +1779,28 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
+        <v>47</v>
+      </c>
+      <c r="D36" t="s">
+        <v>107</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F36" t="s">
+        <v>107</v>
+      </c>
+      <c r="G36" t="s">
+        <v>107</v>
+      </c>
+      <c r="H36" t="s">
+        <v>107</v>
       </c>
       <c r="I36" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1290,7 +1811,22 @@
         <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
+        <v>49</v>
+      </c>
+      <c r="D37" t="s">
+        <v>107</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" t="s">
+        <v>107</v>
+      </c>
+      <c r="G37" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" t="s">
+        <v>107</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -1301,10 +1837,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G38" t="s">
+        <v>107</v>
+      </c>
+      <c r="H38" t="s">
+        <v>107</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -1315,10 +1866,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="D39" t="s">
+        <v>107</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F39" t="s">
+        <v>107</v>
+      </c>
+      <c r="G39" t="s">
+        <v>107</v>
+      </c>
+      <c r="H39" t="s">
+        <v>107</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -1332,7 +1898,22 @@
         <v>18</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>55</v>
+        <v>52</v>
+      </c>
+      <c r="D40" t="s">
+        <v>107</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" t="s">
+        <v>107</v>
+      </c>
+      <c r="H40" t="s">
+        <v>107</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -1346,7 +1927,22 @@
         <v>18</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
+        <v>53</v>
+      </c>
+      <c r="D41" t="s">
+        <v>107</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F41" t="s">
+        <v>107</v>
+      </c>
+      <c r="G41" t="s">
+        <v>107</v>
+      </c>
+      <c r="H41" t="s">
+        <v>107</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -1357,13 +1953,28 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="D42" t="s">
+        <v>107</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F42" t="s">
+        <v>107</v>
+      </c>
+      <c r="G42" t="s">
+        <v>107</v>
+      </c>
+      <c r="H42" t="s">
+        <v>107</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1371,13 +1982,28 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>58</v>
+        <v>55</v>
+      </c>
+      <c r="D43" t="s">
+        <v>107</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F43" t="s">
+        <v>107</v>
+      </c>
+      <c r="G43" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" t="s">
+        <v>107</v>
       </c>
       <c r="I43" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
@@ -1385,13 +2011,28 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>59</v>
+        <v>56</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F44" t="s">
+        <v>107</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" t="s">
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
@@ -1399,13 +2040,28 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>60</v>
+        <v>57</v>
+      </c>
+      <c r="D45" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45" t="s">
+        <v>107</v>
+      </c>
+      <c r="G45" t="s">
+        <v>107</v>
+      </c>
+      <c r="H45" t="s">
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1413,10 +2069,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F46" t="s">
+        <v>107</v>
+      </c>
+      <c r="G46" t="s">
+        <v>107</v>
+      </c>
+      <c r="H46" t="s">
+        <v>107</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -1427,10 +2098,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>1</v>
+      </c>
+      <c r="D47" t="s">
+        <v>107</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47" t="s">
+        <v>107</v>
+      </c>
+      <c r="H47" t="s">
+        <v>107</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -1444,7 +2130,22 @@
         <v>18</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
+        <v>58</v>
+      </c>
+      <c r="D48" t="s">
+        <v>107</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" t="s">
+        <v>107</v>
+      </c>
+      <c r="H48" t="s">
+        <v>107</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -1458,7 +2159,22 @@
         <v>18</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>62</v>
+        <v>59</v>
+      </c>
+      <c r="D49" t="s">
+        <v>107</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F49" t="s">
+        <v>107</v>
+      </c>
+      <c r="G49" t="s">
+        <v>107</v>
+      </c>
+      <c r="H49" t="s">
+        <v>107</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -1472,7 +2188,22 @@
         <v>18</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
+        <v>60</v>
+      </c>
+      <c r="D50" t="s">
+        <v>107</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F50" t="s">
+        <v>107</v>
+      </c>
+      <c r="G50" t="s">
+        <v>107</v>
+      </c>
+      <c r="H50" t="s">
+        <v>107</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -1483,13 +2214,28 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>64</v>
+        <v>61</v>
+      </c>
+      <c r="D51" t="s">
+        <v>107</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F51" t="s">
+        <v>107</v>
+      </c>
+      <c r="G51" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" t="s">
+        <v>107</v>
       </c>
       <c r="I51" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -1497,13 +2243,28 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
+        <v>62</v>
+      </c>
+      <c r="D52" t="s">
+        <v>107</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F52" t="s">
+        <v>107</v>
+      </c>
+      <c r="G52" t="s">
+        <v>107</v>
+      </c>
+      <c r="H52" t="s">
+        <v>107</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -1511,13 +2272,28 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="D53" t="s">
+        <v>107</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F53" t="s">
+        <v>107</v>
+      </c>
+      <c r="G53" t="s">
+        <v>107</v>
+      </c>
+      <c r="H53" t="s">
+        <v>107</v>
+      </c>
       <c r="I53" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -1525,13 +2301,28 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>66</v>
+        <v>63</v>
+      </c>
+      <c r="D54" t="s">
+        <v>107</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F54" t="s">
+        <v>107</v>
+      </c>
+      <c r="G54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H54" t="s">
+        <v>107</v>
       </c>
       <c r="I54" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -1539,10 +2330,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>67</v>
+        <v>64</v>
+      </c>
+      <c r="D55" t="s">
+        <v>107</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F55" t="s">
+        <v>107</v>
+      </c>
+      <c r="G55" t="s">
+        <v>107</v>
+      </c>
+      <c r="H55" t="s">
+        <v>107</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -1556,10 +2362,25 @@
         <v>18</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
+        <v>65</v>
+      </c>
+      <c r="D56" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" t="s">
+        <v>107</v>
+      </c>
+      <c r="H56" t="s">
+        <v>107</v>
       </c>
       <c r="I56" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1570,10 +2391,25 @@
         <v>18</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>69</v>
+        <v>66</v>
+      </c>
+      <c r="D57" t="s">
+        <v>107</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F57" t="s">
+        <v>107</v>
+      </c>
+      <c r="G57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H57" t="s">
+        <v>107</v>
       </c>
       <c r="I57" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -1581,10 +2417,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="D58" t="s">
+        <v>107</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F58" t="s">
+        <v>107</v>
+      </c>
+      <c r="G58" t="s">
+        <v>107</v>
+      </c>
+      <c r="H58" t="s">
+        <v>107</v>
       </c>
       <c r="I58" t="s">
         <v>16</v>
@@ -1595,13 +2446,28 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>71</v>
+        <v>68</v>
+      </c>
+      <c r="D59" t="s">
+        <v>107</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F59" t="s">
+        <v>107</v>
+      </c>
+      <c r="G59" t="s">
+        <v>107</v>
+      </c>
+      <c r="H59" t="s">
+        <v>107</v>
       </c>
       <c r="I59" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1612,10 +2478,25 @@
         <v>18</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
+        <v>69</v>
+      </c>
+      <c r="D60" t="s">
+        <v>107</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F60" t="s">
+        <v>107</v>
+      </c>
+      <c r="G60" t="s">
+        <v>107</v>
+      </c>
+      <c r="H60" t="s">
+        <v>107</v>
       </c>
       <c r="I60" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -1623,10 +2504,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>73</v>
+        <v>70</v>
+      </c>
+      <c r="D61" t="s">
+        <v>107</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F61" t="s">
+        <v>107</v>
+      </c>
+      <c r="G61" t="s">
+        <v>107</v>
+      </c>
+      <c r="H61" t="s">
+        <v>107</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
@@ -1637,13 +2533,28 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>74</v>
+        <v>71</v>
+      </c>
+      <c r="D62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F62" t="s">
+        <v>107</v>
+      </c>
+      <c r="G62" t="s">
+        <v>107</v>
+      </c>
+      <c r="H62" t="s">
+        <v>107</v>
       </c>
       <c r="I62" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -1651,13 +2562,28 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D63" t="s">
+        <v>107</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F63" t="s">
+        <v>107</v>
+      </c>
+      <c r="G63" t="s">
+        <v>107</v>
+      </c>
+      <c r="H63" t="s">
+        <v>107</v>
+      </c>
       <c r="I63" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -1665,13 +2591,28 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>75</v>
+        <v>72</v>
+      </c>
+      <c r="D64" t="s">
+        <v>107</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F64" t="s">
+        <v>107</v>
+      </c>
+      <c r="G64" t="s">
+        <v>107</v>
+      </c>
+      <c r="H64" t="s">
+        <v>107</v>
       </c>
       <c r="I64" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
@@ -1682,10 +2623,25 @@
         <v>18</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>76</v>
+        <v>73</v>
+      </c>
+      <c r="D65" t="s">
+        <v>107</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F65" t="s">
+        <v>107</v>
+      </c>
+      <c r="G65" t="s">
+        <v>107</v>
+      </c>
+      <c r="H65" t="s">
+        <v>107</v>
       </c>
       <c r="I65" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
@@ -1693,13 +2649,28 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="D66" t="s">
+        <v>107</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F66" t="s">
+        <v>107</v>
+      </c>
+      <c r="G66" t="s">
+        <v>107</v>
+      </c>
+      <c r="H66" t="s">
+        <v>107</v>
       </c>
       <c r="I66" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
@@ -1710,10 +2681,25 @@
         <v>18</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>78</v>
+        <v>75</v>
+      </c>
+      <c r="D67" t="s">
+        <v>107</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F67" t="s">
+        <v>107</v>
+      </c>
+      <c r="G67" t="s">
+        <v>107</v>
+      </c>
+      <c r="H67" t="s">
+        <v>107</v>
       </c>
       <c r="I67" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -1721,13 +2707,28 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
+        <v>76</v>
+      </c>
+      <c r="D68" t="s">
+        <v>107</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F68" t="s">
+        <v>107</v>
+      </c>
+      <c r="G68" t="s">
+        <v>107</v>
+      </c>
+      <c r="H68" t="s">
+        <v>107</v>
       </c>
       <c r="I68" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -1735,13 +2736,28 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="D69" t="s">
+        <v>107</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F69" t="s">
+        <v>107</v>
+      </c>
+      <c r="G69" t="s">
+        <v>107</v>
+      </c>
+      <c r="H69" t="s">
+        <v>107</v>
       </c>
       <c r="I69" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -1752,10 +2768,25 @@
         <v>19</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
+        <v>78</v>
+      </c>
+      <c r="D70" t="s">
+        <v>107</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F70" t="s">
+        <v>107</v>
+      </c>
+      <c r="G70" t="s">
+        <v>107</v>
+      </c>
+      <c r="H70" t="s">
+        <v>107</v>
       </c>
       <c r="I70" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
@@ -1766,10 +2797,25 @@
         <v>19</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
+      </c>
+      <c r="D71" t="s">
+        <v>107</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F71" t="s">
+        <v>107</v>
+      </c>
+      <c r="G71" t="s">
+        <v>107</v>
+      </c>
+      <c r="H71" t="s">
+        <v>107</v>
       </c>
       <c r="I71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -1780,10 +2826,25 @@
         <v>19</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>83</v>
+        <v>80</v>
+      </c>
+      <c r="D72" t="s">
+        <v>107</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F72" t="s">
+        <v>107</v>
+      </c>
+      <c r="G72" t="s">
+        <v>107</v>
+      </c>
+      <c r="H72" t="s">
+        <v>107</v>
       </c>
       <c r="I72" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -1791,13 +2852,28 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>84</v>
+        <v>81</v>
+      </c>
+      <c r="D73" t="s">
+        <v>107</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F73" t="s">
+        <v>107</v>
+      </c>
+      <c r="G73" t="s">
+        <v>107</v>
+      </c>
+      <c r="H73" t="s">
+        <v>107</v>
       </c>
       <c r="I73" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -1808,10 +2884,25 @@
         <v>19</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>85</v>
+        <v>82</v>
+      </c>
+      <c r="D74" t="s">
+        <v>107</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F74" t="s">
+        <v>107</v>
+      </c>
+      <c r="G74" t="s">
+        <v>107</v>
+      </c>
+      <c r="H74" t="s">
+        <v>107</v>
       </c>
       <c r="I74" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -1822,10 +2913,25 @@
         <v>18</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>86</v>
+        <v>83</v>
+      </c>
+      <c r="D75" t="s">
+        <v>107</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F75" t="s">
+        <v>107</v>
+      </c>
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
+      <c r="H75" t="s">
+        <v>107</v>
       </c>
       <c r="I75" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -1833,13 +2939,28 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="D76" t="s">
+        <v>107</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F76" t="s">
+        <v>107</v>
+      </c>
+      <c r="G76" t="s">
+        <v>107</v>
+      </c>
+      <c r="H76" t="s">
+        <v>107</v>
       </c>
       <c r="I76" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -1847,13 +2968,28 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="D77" t="s">
+        <v>107</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F77" t="s">
+        <v>107</v>
+      </c>
+      <c r="G77" t="s">
+        <v>107</v>
+      </c>
+      <c r="H77" t="s">
+        <v>107</v>
+      </c>
       <c r="I77" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
@@ -1864,10 +3000,25 @@
         <v>18</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>88</v>
+        <v>85</v>
+      </c>
+      <c r="D78" t="s">
+        <v>107</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F78" t="s">
+        <v>107</v>
+      </c>
+      <c r="G78" t="s">
+        <v>107</v>
+      </c>
+      <c r="H78" t="s">
+        <v>107</v>
       </c>
       <c r="I78" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -1878,10 +3029,25 @@
         <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>89</v>
+        <v>86</v>
+      </c>
+      <c r="D79" t="s">
+        <v>107</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F79" t="s">
+        <v>107</v>
+      </c>
+      <c r="G79" t="s">
+        <v>107</v>
+      </c>
+      <c r="H79" t="s">
+        <v>107</v>
       </c>
       <c r="I79" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
@@ -1889,13 +3055,28 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>90</v>
+        <v>87</v>
+      </c>
+      <c r="D80" t="s">
+        <v>107</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F80" t="s">
+        <v>107</v>
+      </c>
+      <c r="G80" t="s">
+        <v>107</v>
+      </c>
+      <c r="H80" t="s">
+        <v>107</v>
       </c>
       <c r="I80" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
@@ -1903,10 +3084,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="D81" t="s">
+        <v>107</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F81" t="s">
+        <v>107</v>
+      </c>
+      <c r="G81" t="s">
+        <v>107</v>
+      </c>
+      <c r="H81" t="s">
+        <v>107</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -1920,10 +3116,25 @@
         <v>18</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
+        <v>89</v>
+      </c>
+      <c r="D82" t="s">
+        <v>107</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F82" t="s">
+        <v>107</v>
+      </c>
+      <c r="G82" t="s">
+        <v>107</v>
+      </c>
+      <c r="H82" t="s">
+        <v>107</v>
       </c>
       <c r="I82" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
@@ -1934,10 +3145,25 @@
         <v>18</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
+        <v>90</v>
+      </c>
+      <c r="D83" t="s">
+        <v>107</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F83" t="s">
+        <v>107</v>
+      </c>
+      <c r="G83" t="s">
+        <v>107</v>
+      </c>
+      <c r="H83" t="s">
+        <v>107</v>
       </c>
       <c r="I83" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -1948,7 +3174,22 @@
         <v>18</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D84" t="s">
+        <v>107</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F84" t="s">
+        <v>107</v>
+      </c>
+      <c r="G84" t="s">
+        <v>107</v>
+      </c>
+      <c r="H84" t="s">
+        <v>107</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -1962,10 +3203,25 @@
         <v>18</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>95</v>
+        <v>92</v>
+      </c>
+      <c r="D85" t="s">
+        <v>107</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F85" t="s">
+        <v>107</v>
+      </c>
+      <c r="G85" t="s">
+        <v>107</v>
+      </c>
+      <c r="H85" t="s">
+        <v>107</v>
       </c>
       <c r="I85" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -1976,10 +3232,25 @@
         <v>18</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>96</v>
+        <v>93</v>
+      </c>
+      <c r="D86" t="s">
+        <v>107</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F86" t="s">
+        <v>107</v>
+      </c>
+      <c r="G86" t="s">
+        <v>107</v>
+      </c>
+      <c r="H86" t="s">
+        <v>107</v>
       </c>
       <c r="I86" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -1990,10 +3261,25 @@
         <v>18</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
+        <v>94</v>
+      </c>
+      <c r="D87" t="s">
+        <v>107</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F87" t="s">
+        <v>107</v>
+      </c>
+      <c r="G87" t="s">
+        <v>107</v>
+      </c>
+      <c r="H87" t="s">
+        <v>107</v>
       </c>
       <c r="I87" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2001,13 +3287,28 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
+        <v>95</v>
+      </c>
+      <c r="D88" t="s">
+        <v>107</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F88" t="s">
+        <v>107</v>
+      </c>
+      <c r="G88" t="s">
+        <v>107</v>
+      </c>
+      <c r="H88" t="s">
+        <v>107</v>
       </c>
       <c r="I88" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2015,10 +3316,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>99</v>
+        <v>96</v>
+      </c>
+      <c r="D89" t="s">
+        <v>107</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F89" t="s">
+        <v>107</v>
+      </c>
+      <c r="G89" t="s">
+        <v>107</v>
+      </c>
+      <c r="H89" t="s">
+        <v>107</v>
       </c>
       <c r="I89" t="s">
         <v>16</v>
@@ -2029,10 +3345,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>100</v>
+        <v>97</v>
+      </c>
+      <c r="D90" t="s">
+        <v>107</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F90" t="s">
+        <v>107</v>
+      </c>
+      <c r="G90" t="s">
+        <v>107</v>
+      </c>
+      <c r="H90" t="s">
+        <v>107</v>
       </c>
       <c r="I90" t="s">
         <v>16</v>
@@ -2043,13 +3374,28 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>101</v>
+        <v>98</v>
+      </c>
+      <c r="D91" t="s">
+        <v>107</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F91" t="s">
+        <v>107</v>
+      </c>
+      <c r="G91" t="s">
+        <v>107</v>
+      </c>
+      <c r="H91" t="s">
+        <v>107</v>
       </c>
       <c r="I91" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
@@ -2057,10 +3403,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="D92" t="s">
+        <v>107</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F92" t="s">
+        <v>107</v>
+      </c>
+      <c r="G92" t="s">
+        <v>107</v>
+      </c>
+      <c r="H92" t="s">
+        <v>107</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -2074,10 +3435,25 @@
         <v>18</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
+        <v>100</v>
+      </c>
+      <c r="D93" t="s">
+        <v>107</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F93" t="s">
+        <v>107</v>
+      </c>
+      <c r="G93" t="s">
+        <v>107</v>
+      </c>
+      <c r="H93" t="s">
+        <v>107</v>
       </c>
       <c r="I93" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -2085,13 +3461,28 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>104</v>
+        <v>101</v>
+      </c>
+      <c r="D94" t="s">
+        <v>107</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F94" t="s">
+        <v>107</v>
+      </c>
+      <c r="G94" t="s">
+        <v>107</v>
+      </c>
+      <c r="H94" t="s">
+        <v>107</v>
       </c>
       <c r="I94" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -2099,10 +3490,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>105</v>
+        <v>102</v>
+      </c>
+      <c r="D95" t="s">
+        <v>107</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F95" t="s">
+        <v>107</v>
+      </c>
+      <c r="G95" t="s">
+        <v>107</v>
+      </c>
+      <c r="H95" t="s">
+        <v>107</v>
       </c>
       <c r="I95" t="s">
         <v>16</v>
@@ -2113,13 +3519,28 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>2</v>
       </c>
+      <c r="D96" t="s">
+        <v>107</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="F96" t="s">
+        <v>107</v>
+      </c>
+      <c r="G96" t="s">
+        <v>107</v>
+      </c>
+      <c r="H96" t="s">
+        <v>107</v>
+      </c>
       <c r="I96" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/input/Mendix_TestPlan.xlsx
+++ b/input/Mendix_TestPlan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Branching\Mendix_BatchRun\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\Batch Run Mendix\Mendix_BatchRun\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35B5BE9C-EACD-49D1-9BF1-68754647CFF5}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6395C6-C41D-49A5-B811-189B7C31A624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{14E9EC64-EF31-48E0-B023-FAA0F7238E1E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14E9EC64-EF31-48E0-B023-FAA0F7238E1E}"/>
   </bookViews>
   <sheets>
     <sheet name="TestPlan" sheetId="3" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="121">
   <si>
     <t>35Create_Material_SaveAsDraft_JDE.xml</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Material_Number_AH1</t>
   </si>
   <si>
-    <t>Material_Number_AE1</t>
-  </si>
-  <si>
     <t>Material Description</t>
   </si>
   <si>
@@ -92,9 +89,6 @@
     <t>MZCB</t>
   </si>
   <si>
-    <t>ABC</t>
-  </si>
-  <si>
     <t>416678</t>
   </si>
   <si>
@@ -365,10 +359,40 @@
     <t>abc</t>
   </si>
   <si>
-    <t>505326</t>
-  </si>
-  <si>
-    <t>1427470</t>
+    <t>1000115708</t>
+  </si>
+  <si>
+    <t>1427524</t>
+  </si>
+  <si>
+    <t>505358</t>
+  </si>
+  <si>
+    <t>1427526</t>
+  </si>
+  <si>
+    <t>416698</t>
+  </si>
+  <si>
+    <t>Mendix_User</t>
+  </si>
+  <si>
+    <t>UFT_User</t>
+  </si>
+  <si>
+    <t>MDVM_BE01_LDR</t>
+  </si>
+  <si>
+    <t>SAP</t>
+  </si>
+  <si>
+    <t>1427663</t>
+  </si>
+  <si>
+    <t>505375</t>
+  </si>
+  <si>
+    <t>1000115723</t>
   </si>
 </sst>
 </file>
@@ -750,26 +774,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68D3B0-419D-4776-B7EB-C4F5DAC7B24D}">
-  <dimension ref="A1:I96"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.5703125" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.85546875" collapsed="false"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="5.5546875" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
     <col min="3" max="3" customWidth="true" width="97.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5703125" collapsed="true"/>
+    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="9.0" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="5" width="14.109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="72.0" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -785,1341 +809,1894 @@
       <c r="E1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>123</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+      <c r="D3">
+        <v>123</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>23</v>
+      </c>
+      <c r="D4">
+        <v>123</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+      <c r="D5">
+        <v>123</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="F6" t="s">
-        <v>110</v>
-      </c>
-      <c r="G6" t="s">
-        <v>110</v>
+        <v>119</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>117</v>
       </c>
       <c r="H6" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="I6" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+      <c r="D7">
+        <v>123</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+      <c r="D8">
+        <v>123</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+      <c r="D9">
+        <v>123</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+      <c r="D10">
+        <v>123</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="D11">
+        <v>123</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="D12">
+        <v>123</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>123</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+      <c r="D14">
+        <v>123</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+      <c r="D15">
+        <v>123</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+      <c r="D16">
+        <v>123</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+      <c r="D17">
+        <v>123</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>123</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+      <c r="D19">
+        <v>123</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+        <v>37</v>
+      </c>
+      <c r="D20">
+        <v>123</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D21" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+      <c r="D22" t="s">
+        <v>112</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="H22">
+        <v>1234</v>
+      </c>
+      <c r="I22">
+        <v>1234</v>
+      </c>
+      <c r="J22">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="D23">
+        <v>123</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D24"/>
-      <c r="E24" s="5"/>
-      <c r="F24"/>
-      <c r="G24"/>
+      <c r="D24">
+        <v>123</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
       <c r="H24"/>
       <c r="I24"/>
-    </row>
-    <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="J24"/>
+    </row>
+    <row r="25" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D25"/>
-      <c r="E25" s="5"/>
-      <c r="F25"/>
-      <c r="G25"/>
+      <c r="D25">
+        <v>123</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
       <c r="H25"/>
       <c r="I25"/>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I26" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+      <c r="D26">
+        <v>123</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J26" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F27" t="s">
-        <v>110</v>
-      </c>
-      <c r="G27" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J27" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>110</v>
-      </c>
-      <c r="F28" t="s">
-        <v>110</v>
-      </c>
-      <c r="G28" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+      <c r="J28" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="I29" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+      <c r="D29">
+        <v>123</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J29" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="I30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="D30">
+        <v>123</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I31" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+      <c r="D31">
+        <v>123</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I32" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+      <c r="D32">
+        <v>123</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="I33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+      <c r="D33">
+        <v>123</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J33" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I34" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D34">
+        <v>123</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J34" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="I35" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+      <c r="D35">
+        <v>123</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+      <c r="D36">
+        <v>123</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J36" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="I37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="D37">
+        <v>123</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J37" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I38" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D38">
+        <v>123</v>
+      </c>
+      <c r="E38" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J38" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I39" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+      <c r="D39">
+        <v>123</v>
+      </c>
+      <c r="E39" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J39" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="I40" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="D40">
+        <v>123</v>
+      </c>
+      <c r="E40" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J40" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="I41" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="D41">
+        <v>123</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="I42" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+      <c r="D42">
+        <v>123</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J42" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="I43" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="D43">
+        <v>123</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J43" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="I44" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+      <c r="D44">
+        <v>123</v>
+      </c>
+      <c r="E44" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J44" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="I45" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+      <c r="D45">
+        <v>123</v>
+      </c>
+      <c r="E45" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J45" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="I46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="D46">
+        <v>123</v>
+      </c>
+      <c r="E46" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J46" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="I47" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>123</v>
+      </c>
+      <c r="E47" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J47" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="I48" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+      <c r="D48">
+        <v>123</v>
+      </c>
+      <c r="E48" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J48" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>62</v>
-      </c>
-      <c r="I49" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+      <c r="D49">
+        <v>123</v>
+      </c>
+      <c r="E49" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J49" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="I50" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+      <c r="D50">
+        <v>123</v>
+      </c>
+      <c r="E50" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J50" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D51">
+        <v>123</v>
+      </c>
+      <c r="E51" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J51" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="I52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+      <c r="D52">
+        <v>123</v>
+      </c>
+      <c r="E52" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J52" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I53" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>123</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J53" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="I54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+      <c r="D54">
+        <v>123</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J54" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="I55" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+      <c r="D55">
+        <v>123</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J55" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="I56" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+      <c r="D56">
+        <v>123</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I57" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="D57">
+        <v>123</v>
+      </c>
+      <c r="E57" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J57" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I58" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+      <c r="D58">
+        <v>123</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J58" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="I59" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="D59">
+        <v>123</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="I60" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+      <c r="D60">
+        <v>123</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I61" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+      <c r="D61">
+        <v>123</v>
+      </c>
+      <c r="E61" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J61" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>74</v>
-      </c>
-      <c r="I62" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="D62">
+        <v>123</v>
+      </c>
+      <c r="E62" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I63" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>123</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J63" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I64" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+      <c r="D64">
+        <v>123</v>
+      </c>
+      <c r="E64" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J64" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>64</v>
       </c>
       <c r="B65" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I65" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="D65">
+        <v>123</v>
+      </c>
+      <c r="E65" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J65" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="I66" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="D66">
+        <v>123</v>
+      </c>
+      <c r="E66" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J66" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>66</v>
       </c>
       <c r="B67" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I67" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+      <c r="D67">
+        <v>123</v>
+      </c>
+      <c r="E67" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J67" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="I68" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="D68">
+        <v>123</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J68" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="I69" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="D69">
+        <v>123</v>
+      </c>
+      <c r="E69" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J69" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="I70" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+      <c r="D70">
+        <v>123</v>
+      </c>
+      <c r="E70" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J70" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I71" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+      <c r="D71">
+        <v>123</v>
+      </c>
+      <c r="E71" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J71" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="I72" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+      <c r="D72">
+        <v>123</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J72" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="I73" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="D73">
+        <v>123</v>
+      </c>
+      <c r="E73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J73" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="I74" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+      <c r="D74">
+        <v>123</v>
+      </c>
+      <c r="E74" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J74" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I75" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+      <c r="D75">
+        <v>123</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J75" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="I76" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="D76">
+        <v>123</v>
+      </c>
+      <c r="E76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="I77" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>123</v>
+      </c>
+      <c r="E77" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J77" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="I78" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+      <c r="D78">
+        <v>123</v>
+      </c>
+      <c r="E78" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J78" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="I79" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="D79">
+        <v>123</v>
+      </c>
+      <c r="E79" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J79" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I80" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+      <c r="D80">
+        <v>123</v>
+      </c>
+      <c r="E80" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J80" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="I81" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+        <v>89</v>
+      </c>
+      <c r="D81">
+        <v>123</v>
+      </c>
+      <c r="E81" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J81" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="I82" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+      <c r="D82">
+        <v>123</v>
+      </c>
+      <c r="E82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J82" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="I83" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+      <c r="D83">
+        <v>123</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J83" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="I84" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+      <c r="D84">
+        <v>123</v>
+      </c>
+      <c r="E84" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J84" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="I85" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+      <c r="D85">
+        <v>123</v>
+      </c>
+      <c r="E85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J85" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>96</v>
-      </c>
-      <c r="I86" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+      <c r="D86">
+        <v>123</v>
+      </c>
+      <c r="E86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J86" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>97</v>
-      </c>
-      <c r="I87" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+        <v>95</v>
+      </c>
+      <c r="D87">
+        <v>123</v>
+      </c>
+      <c r="E87" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J87" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="I88" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+      <c r="D88">
+        <v>123</v>
+      </c>
+      <c r="E88" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J88" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>99</v>
-      </c>
-      <c r="I89" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+        <v>97</v>
+      </c>
+      <c r="D89">
+        <v>123</v>
+      </c>
+      <c r="E89" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J89" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="I90" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+      <c r="D90">
+        <v>123</v>
+      </c>
+      <c r="E90" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J90" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>101</v>
-      </c>
-      <c r="I91" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+        <v>99</v>
+      </c>
+      <c r="D91">
+        <v>123</v>
+      </c>
+      <c r="E91" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="I92" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+      <c r="D92">
+        <v>123</v>
+      </c>
+      <c r="E92" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J92" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="I93" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+      <c r="D93">
+        <v>123</v>
+      </c>
+      <c r="E93" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J93" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="I94" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+        <v>102</v>
+      </c>
+      <c r="D94">
+        <v>123</v>
+      </c>
+      <c r="E94" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J94" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="I95" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+        <v>103</v>
+      </c>
+      <c r="D95">
+        <v>123</v>
+      </c>
+      <c r="E95" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J95" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I96" t="s">
-        <v>38</v>
+      <c r="D96">
+        <v>123</v>
+      </c>
+      <c r="E96" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="J96" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/input/Mendix_TestPlan.xlsx
+++ b/input/Mendix_TestPlan.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\IBM_ADMIN\Git\Batch Run Mendix\Mendix_BatchRun\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A6395C6-C41D-49A5-B811-189B7C31A624}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{290478A8-E0CB-4727-BE12-19A853240512}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{14E9EC64-EF31-48E0-B023-FAA0F7238E1E}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="120">
   <si>
     <t>35Create_Material_SaveAsDraft_JDE.xml</t>
   </si>
@@ -359,12 +359,6 @@
     <t>abc</t>
   </si>
   <si>
-    <t>1000115708</t>
-  </si>
-  <si>
-    <t>1427524</t>
-  </si>
-  <si>
     <t>505358</t>
   </si>
   <si>
@@ -393,13 +387,15 @@
   </si>
   <si>
     <t>1000115723</t>
+  </si>
+  <si>
+    <t>abcd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -776,21 +772,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68D3B0-419D-4776-B7EB-C4F5DAC7B24D}">
   <dimension ref="A1:J96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="5.5546875" collapsed="true"/>
-    <col min="2" max="2" bestFit="true" customWidth="true" width="5.88671875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="97.0" collapsed="true"/>
-    <col min="4" max="4" bestFit="true" customWidth="true" width="10.5546875" collapsed="true"/>
-    <col min="5" max="5" bestFit="true" customWidth="true" style="5" width="9.0" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="5" width="14.109375" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="19.88671875" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="17.6640625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="72.0" collapsed="true"/>
+    <col min="1" max="1" width="5.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="97" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="9" style="5" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="14.109375" style="5" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="19.88671875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.6640625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="72" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
@@ -810,10 +806,10 @@
         <v>12</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>13</v>
@@ -839,7 +835,7 @@
         <v>123</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -856,7 +852,7 @@
         <v>123</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -873,7 +869,7 @@
         <v>123</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -890,7 +886,7 @@
         <v>123</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -904,25 +900,25 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
+        <v>116</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="H6" t="s">
         <v>118</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>119</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="G6" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="H6" t="s">
-        <v>120</v>
       </c>
       <c r="I6" t="s">
         <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -939,7 +935,7 @@
         <v>123</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -956,7 +952,7 @@
         <v>123</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -973,7 +969,7 @@
         <v>123</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -990,7 +986,7 @@
         <v>123</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
@@ -1007,7 +1003,7 @@
         <v>123</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
@@ -1024,7 +1020,7 @@
         <v>123</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
@@ -1041,7 +1037,7 @@
         <v>123</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -1058,7 +1054,7 @@
         <v>123</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -1075,7 +1071,7 @@
         <v>123</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -1092,7 +1088,7 @@
         <v>123</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.3">
@@ -1109,7 +1105,7 @@
         <v>123</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -1126,7 +1122,7 @@
         <v>123</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -1143,7 +1139,7 @@
         <v>123</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.3">
@@ -1160,7 +1156,7 @@
         <v>123</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.3">
@@ -1191,10 +1187,10 @@
         <v>38</v>
       </c>
       <c r="D22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="H22">
         <v>1234</v>
@@ -1220,7 +1216,7 @@
         <v>123</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -1237,7 +1233,7 @@
         <v>123</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F24" s="5"/>
       <c r="G24" s="5"/>
@@ -1259,7 +1255,7 @@
         <v>123</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F25" s="5"/>
       <c r="G25" s="5"/>
@@ -1281,7 +1277,7 @@
         <v>123</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J26" t="s">
         <v>39</v>
@@ -1301,7 +1297,7 @@
         <v>108</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H27" t="s">
         <v>108</v>
@@ -1327,7 +1323,7 @@
         <v>108</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H28" t="s">
         <v>108</v>
@@ -1353,7 +1349,7 @@
         <v>123</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J29" t="s">
         <v>32</v>
@@ -1373,7 +1369,7 @@
         <v>123</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J30" t="s">
         <v>32</v>
@@ -1393,7 +1389,7 @@
         <v>123</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J31" t="s">
         <v>27</v>
@@ -1413,7 +1409,7 @@
         <v>123</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J32" t="s">
         <v>27</v>
@@ -1433,7 +1429,7 @@
         <v>123</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J33" t="s">
         <v>16</v>
@@ -1453,7 +1449,7 @@
         <v>123</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
         <v>32</v>
@@ -1473,7 +1469,7 @@
         <v>123</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J35" t="s">
         <v>27</v>
@@ -1493,7 +1489,7 @@
         <v>123</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J36" t="s">
         <v>32</v>
@@ -1513,7 +1509,7 @@
         <v>123</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J37" t="s">
         <v>16</v>
@@ -1533,7 +1529,7 @@
         <v>123</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J38" t="s">
         <v>16</v>
@@ -1553,7 +1549,7 @@
         <v>123</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J39" t="s">
         <v>16</v>
@@ -1573,7 +1569,7 @@
         <v>123</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J40" t="s">
         <v>16</v>
@@ -1593,7 +1589,7 @@
         <v>123</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J41" t="s">
         <v>16</v>
@@ -1613,7 +1609,7 @@
         <v>123</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J42" t="s">
         <v>32</v>
@@ -1633,7 +1629,7 @@
         <v>123</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J43" t="s">
         <v>32</v>
@@ -1653,7 +1649,7 @@
         <v>123</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J44" t="s">
         <v>32</v>
@@ -1673,7 +1669,7 @@
         <v>123</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J45" t="s">
         <v>27</v>
@@ -1693,7 +1689,7 @@
         <v>123</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J46" t="s">
         <v>16</v>
@@ -1713,7 +1709,7 @@
         <v>123</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J47" t="s">
         <v>16</v>
@@ -1733,7 +1729,7 @@
         <v>123</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J48" t="s">
         <v>16</v>
@@ -1753,7 +1749,7 @@
         <v>123</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J49" t="s">
         <v>16</v>
@@ -1773,7 +1769,7 @@
         <v>123</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J50" t="s">
         <v>16</v>
@@ -1793,7 +1789,7 @@
         <v>123</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J51" t="s">
         <v>27</v>
@@ -1813,7 +1809,7 @@
         <v>123</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J52" t="s">
         <v>32</v>
@@ -1833,7 +1829,7 @@
         <v>123</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J53" t="s">
         <v>27</v>
@@ -1853,7 +1849,7 @@
         <v>123</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J54" t="s">
         <v>36</v>
@@ -1873,7 +1869,7 @@
         <v>123</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J55" t="s">
         <v>15</v>
@@ -1893,7 +1889,7 @@
         <v>123</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J56" t="s">
         <v>38</v>
@@ -1913,7 +1909,7 @@
         <v>123</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J57" t="s">
         <v>38</v>
@@ -1933,7 +1929,7 @@
         <v>123</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J58" t="s">
         <v>15</v>
@@ -1953,7 +1949,7 @@
         <v>123</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J59" t="s">
         <v>36</v>
@@ -1973,7 +1969,7 @@
         <v>123</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J60" t="s">
         <v>38</v>
@@ -1993,7 +1989,7 @@
         <v>123</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J61" t="s">
         <v>15</v>
@@ -2013,7 +2009,7 @@
         <v>123</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J62" t="s">
         <v>36</v>
@@ -2033,7 +2029,7 @@
         <v>123</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J63" t="s">
         <v>36</v>
@@ -2053,7 +2049,7 @@
         <v>123</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J64" t="s">
         <v>36</v>
@@ -2073,7 +2069,7 @@
         <v>123</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J65" t="s">
         <v>38</v>
@@ -2093,7 +2089,7 @@
         <v>123</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J66" t="s">
         <v>36</v>
@@ -2113,7 +2109,7 @@
         <v>123</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J67" t="s">
         <v>38</v>
@@ -2133,7 +2129,7 @@
         <v>123</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J68" t="s">
         <v>38</v>
@@ -2153,7 +2149,7 @@
         <v>123</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J69" t="s">
         <v>38</v>
@@ -2173,7 +2169,7 @@
         <v>123</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J70" t="s">
         <v>38</v>
@@ -2193,7 +2189,7 @@
         <v>123</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J71" t="s">
         <v>38</v>
@@ -2213,7 +2209,7 @@
         <v>123</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J72" t="s">
         <v>36</v>
@@ -2233,7 +2229,7 @@
         <v>123</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J73" t="s">
         <v>38</v>
@@ -2253,7 +2249,7 @@
         <v>123</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J74" t="s">
         <v>38</v>
@@ -2273,7 +2269,7 @@
         <v>123</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J75" t="s">
         <v>38</v>
@@ -2293,7 +2289,7 @@
         <v>123</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J76" t="s">
         <v>36</v>
@@ -2313,7 +2309,7 @@
         <v>123</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J77" t="s">
         <v>36</v>
@@ -2333,7 +2329,7 @@
         <v>123</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J78" t="s">
         <v>38</v>
@@ -2353,7 +2349,7 @@
         <v>123</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J79" t="s">
         <v>38</v>
@@ -2373,7 +2369,7 @@
         <v>123</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J80" t="s">
         <v>36</v>
@@ -2393,7 +2389,7 @@
         <v>123</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J81" t="s">
         <v>15</v>
@@ -2413,7 +2409,7 @@
         <v>123</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J82" t="s">
         <v>38</v>
@@ -2433,7 +2429,7 @@
         <v>123</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J83" t="s">
         <v>38</v>
@@ -2453,7 +2449,7 @@
         <v>123</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J84" t="s">
         <v>16</v>
@@ -2473,7 +2469,7 @@
         <v>123</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J85" t="s">
         <v>38</v>
@@ -2493,7 +2489,7 @@
         <v>123</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J86" t="s">
         <v>38</v>
@@ -2513,7 +2509,7 @@
         <v>123</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J87" t="s">
         <v>38</v>
@@ -2533,7 +2529,7 @@
         <v>123</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J88" t="s">
         <v>36</v>
@@ -2553,7 +2549,7 @@
         <v>123</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J89" t="s">
         <v>15</v>
@@ -2573,7 +2569,7 @@
         <v>123</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J90" t="s">
         <v>15</v>
@@ -2593,7 +2589,7 @@
         <v>123</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J91" t="s">
         <v>38</v>
@@ -2613,7 +2609,7 @@
         <v>123</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J92" t="s">
         <v>15</v>
@@ -2633,7 +2629,7 @@
         <v>123</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J93" t="s">
         <v>38</v>
@@ -2653,7 +2649,7 @@
         <v>123</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J94" t="s">
         <v>36</v>
@@ -2673,7 +2669,7 @@
         <v>123</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J95" t="s">
         <v>15</v>
@@ -2693,7 +2689,7 @@
         <v>123</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="J96" t="s">
         <v>36</v>

--- a/input/Mendix_TestPlan.xlsx
+++ b/input/Mendix_TestPlan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git_Batchrun\setupisam.log\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Mendix WorkSpace\Mendix_BatchRun\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE4F773D-97BD-4359-B32D-9F9D920448CE}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D905825-36A3-4F6E-AFE9-200E88828438}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13290" xr2:uid="{14E9EC64-EF31-48E0-B023-FAA0F7238E1E}"/>
   </bookViews>
@@ -149,9 +149,6 @@
     <t>97.Create_Vendor_with_Questionnaire_banklocalonly_Global2.xml</t>
   </si>
   <si>
-    <t>4.Change_vendor_global_&amp;_local_&amp;_Bank.xml</t>
-  </si>
-  <si>
     <t>5.Change _vendor_global _Only.xml</t>
   </si>
   <si>
@@ -360,6 +357,9 @@
   </si>
   <si>
     <t>1427470</t>
+  </si>
+  <si>
+    <t>4.Change_vendor_global__local__Bank.xml</t>
   </si>
 </sst>
 </file>
@@ -743,7 +743,7 @@
   <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -799,22 +799,22 @@
         <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -828,22 +828,22 @@
         <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -857,22 +857,22 @@
         <v>22</v>
       </c>
       <c r="D4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -886,22 +886,22 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -915,22 +915,22 @@
         <v>17</v>
       </c>
       <c r="D6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -944,22 +944,22 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I7" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -973,22 +973,22 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I8" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -996,28 +996,28 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I9" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1025,28 +1025,28 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I10" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -1054,28 +1054,28 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1083,28 +1083,28 @@
         <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -1112,28 +1112,28 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>30</v>
       </c>
       <c r="D13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I13" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -1141,28 +1141,28 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C14" s="3" t="s">
         <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -1170,28 +1170,28 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>32</v>
       </c>
       <c r="D15" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I15" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1199,28 +1199,28 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>33</v>
       </c>
       <c r="D16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
@@ -1228,28 +1228,28 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I17" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
@@ -1257,28 +1257,28 @@
         <v>17</v>
       </c>
       <c r="B18" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C18" s="3" t="s">
         <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1286,28 +1286,28 @@
         <v>18</v>
       </c>
       <c r="B19" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
@@ -1321,22 +1321,22 @@
         <v>36</v>
       </c>
       <c r="D20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I20" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
@@ -1350,22 +1350,22 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
@@ -1379,22 +1379,22 @@
         <v>37</v>
       </c>
       <c r="D22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I22" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
@@ -1408,22 +1408,22 @@
         <v>38</v>
       </c>
       <c r="D23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1431,28 +1431,28 @@
         <v>23</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>5</v>
       </c>
       <c r="D24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I24" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -1460,28 +1460,28 @@
         <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
@@ -1492,22 +1492,22 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>39</v>
+        <v>109</v>
       </c>
       <c r="D26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I26" t="s">
         <v>38</v>
@@ -1521,22 +1521,22 @@
         <v>18</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I27" t="s">
         <v>17</v>
@@ -1550,22 +1550,22 @@
         <v>18</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H28" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I28" t="s">
         <v>17</v>
@@ -1576,25 +1576,25 @@
         <v>28</v>
       </c>
       <c r="B29" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I29" t="s">
         <v>31</v>
@@ -1605,25 +1605,25 @@
         <v>29</v>
       </c>
       <c r="B30" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H30" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I30" t="s">
         <v>31</v>
@@ -1634,25 +1634,25 @@
         <v>30</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I31" t="s">
         <v>26</v>
@@ -1663,25 +1663,25 @@
         <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H32" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I32" t="s">
         <v>26</v>
@@ -1695,22 +1695,22 @@
         <v>18</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H33" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I33" t="s">
         <v>17</v>
@@ -1724,22 +1724,22 @@
         <v>19</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H34" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I34" t="s">
         <v>31</v>
@@ -1750,25 +1750,25 @@
         <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H35" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I35" t="s">
         <v>26</v>
@@ -1779,25 +1779,25 @@
         <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H36" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I36" t="s">
         <v>31</v>
@@ -1811,22 +1811,22 @@
         <v>18</v>
       </c>
       <c r="C37" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H37" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I37" t="s">
         <v>17</v>
@@ -1837,25 +1837,25 @@
         <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H38" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I38" t="s">
         <v>17</v>
@@ -1866,25 +1866,25 @@
         <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C39" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H39" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I39" t="s">
         <v>17</v>
@@ -1898,22 +1898,22 @@
         <v>18</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H40" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I40" t="s">
         <v>17</v>
@@ -1927,22 +1927,22 @@
         <v>18</v>
       </c>
       <c r="C41" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I41" t="s">
         <v>17</v>
@@ -1953,25 +1953,25 @@
         <v>41</v>
       </c>
       <c r="B42" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H42" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I42" t="s">
         <v>31</v>
@@ -1982,25 +1982,25 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I43" t="s">
         <v>31</v>
@@ -2011,25 +2011,25 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I44" t="s">
         <v>31</v>
@@ -2040,25 +2040,25 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C45" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I45" t="s">
         <v>26</v>
@@ -2069,25 +2069,25 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C46" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I46" t="s">
         <v>17</v>
@@ -2098,25 +2098,25 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C47" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I47" t="s">
         <v>17</v>
@@ -2130,22 +2130,22 @@
         <v>18</v>
       </c>
       <c r="C48" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I48" t="s">
         <v>17</v>
@@ -2159,22 +2159,22 @@
         <v>18</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I49" t="s">
         <v>17</v>
@@ -2188,22 +2188,22 @@
         <v>18</v>
       </c>
       <c r="C50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H50" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I50" t="s">
         <v>17</v>
@@ -2214,25 +2214,25 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C51" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H51" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I51" t="s">
         <v>26</v>
@@ -2243,25 +2243,25 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H52" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I52" t="s">
         <v>31</v>
@@ -2272,25 +2272,25 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53" s="4" t="s">
         <v>3</v>
       </c>
       <c r="D53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H53" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I53" t="s">
         <v>26</v>
@@ -2301,25 +2301,25 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H54" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I54" t="s">
         <v>35</v>
@@ -2330,25 +2330,25 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I55" t="s">
         <v>16</v>
@@ -2362,22 +2362,22 @@
         <v>18</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I56" t="s">
         <v>37</v>
@@ -2391,22 +2391,22 @@
         <v>18</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H57" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I57" t="s">
         <v>37</v>
@@ -2417,25 +2417,25 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H58" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I58" t="s">
         <v>16</v>
@@ -2446,25 +2446,25 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H59" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I59" t="s">
         <v>35</v>
@@ -2478,22 +2478,22 @@
         <v>18</v>
       </c>
       <c r="C60" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H60" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I60" t="s">
         <v>37</v>
@@ -2504,25 +2504,25 @@
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C61" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H61" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I61" t="s">
         <v>16</v>
@@ -2533,25 +2533,25 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C62" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H62" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I62" t="s">
         <v>35</v>
@@ -2562,25 +2562,25 @@
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C63" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I63" t="s">
         <v>35</v>
@@ -2591,25 +2591,25 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H64" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I64" t="s">
         <v>35</v>
@@ -2623,22 +2623,22 @@
         <v>18</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H65" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I65" t="s">
         <v>37</v>
@@ -2649,25 +2649,25 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H66" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I66" t="s">
         <v>35</v>
@@ -2681,22 +2681,22 @@
         <v>18</v>
       </c>
       <c r="C67" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H67" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I67" t="s">
         <v>37</v>
@@ -2707,25 +2707,25 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H68" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I68" t="s">
         <v>37</v>
@@ -2736,25 +2736,25 @@
         <v>68</v>
       </c>
       <c r="B69" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C69" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H69" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I69" t="s">
         <v>37</v>
@@ -2768,22 +2768,22 @@
         <v>19</v>
       </c>
       <c r="C70" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I70" t="s">
         <v>37</v>
@@ -2797,22 +2797,22 @@
         <v>19</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I71" t="s">
         <v>37</v>
@@ -2826,22 +2826,22 @@
         <v>19</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I72" t="s">
         <v>35</v>
@@ -2852,25 +2852,25 @@
         <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C73" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H73" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I73" t="s">
         <v>37</v>
@@ -2884,22 +2884,22 @@
         <v>19</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H74" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I74" t="s">
         <v>37</v>
@@ -2913,22 +2913,22 @@
         <v>18</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H75" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I75" t="s">
         <v>37</v>
@@ -2939,25 +2939,25 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H76" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I76" t="s">
         <v>35</v>
@@ -2968,25 +2968,25 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C77" s="4" t="s">
         <v>4</v>
       </c>
       <c r="D77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H77" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I77" t="s">
         <v>35</v>
@@ -3000,22 +3000,22 @@
         <v>18</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H78" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I78" t="s">
         <v>37</v>
@@ -3029,22 +3029,22 @@
         <v>18</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I79" t="s">
         <v>37</v>
@@ -3055,25 +3055,25 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C80" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I80" t="s">
         <v>35</v>
@@ -3084,25 +3084,25 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H81" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I81" t="s">
         <v>16</v>
@@ -3116,22 +3116,22 @@
         <v>18</v>
       </c>
       <c r="C82" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I82" t="s">
         <v>37</v>
@@ -3145,22 +3145,22 @@
         <v>18</v>
       </c>
       <c r="C83" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H83" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I83" t="s">
         <v>37</v>
@@ -3174,22 +3174,22 @@
         <v>18</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H84" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I84" t="s">
         <v>17</v>
@@ -3203,22 +3203,22 @@
         <v>18</v>
       </c>
       <c r="C85" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H85" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I85" t="s">
         <v>37</v>
@@ -3232,22 +3232,22 @@
         <v>18</v>
       </c>
       <c r="C86" s="4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I86" t="s">
         <v>37</v>
@@ -3261,22 +3261,22 @@
         <v>18</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H87" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I87" t="s">
         <v>37</v>
@@ -3287,25 +3287,25 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C88" s="4" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H88" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I88" t="s">
         <v>35</v>
@@ -3316,25 +3316,25 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C89" s="4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I89" t="s">
         <v>16</v>
@@ -3345,25 +3345,25 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C90" s="4" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H90" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I90" t="s">
         <v>16</v>
@@ -3374,25 +3374,25 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H91" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I91" t="s">
         <v>37</v>
@@ -3403,25 +3403,25 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H92" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I92" t="s">
         <v>16</v>
@@ -3435,22 +3435,22 @@
         <v>18</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H93" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I93" t="s">
         <v>37</v>
@@ -3461,25 +3461,25 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I94" t="s">
         <v>35</v>
@@ -3490,25 +3490,25 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I95" t="s">
         <v>16</v>
@@ -3519,25 +3519,25 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C96" s="4" t="s">
         <v>2</v>
       </c>
       <c r="D96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="F96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H96" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I96" t="s">
         <v>35</v>
